--- a/missing_vallue_handling/cleaned_numerical_data.xlsx
+++ b/missing_vallue_handling/cleaned_numerical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,267 +471,6777 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Feature_8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_11</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_12</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_13</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_14</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_15</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_16</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Feature_17</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Target</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>4.967141530112327</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>-1.382643011711846</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6.476885381006925</v>
       </c>
       <c r="D2" t="n">
+        <v>15.23029856408025</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.34153374723336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.341369569491806</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.79212815507391</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.674347291529088</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.694743859349521</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.425600435859646</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-4.634176928124623</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-4.657297535702568</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.419622715660341</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-19.13280244657798</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-17.24917832513033</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-5.622875292409727</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-10.12831120334424</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.42857142857143</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>3.142473325952739</v>
       </c>
       <c r="B3" t="n">
-        <v>27.14285714285714</v>
+        <v>-9.08024075521211</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>-14.12303701335292</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>14.65648768921554</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>-2.257763004865357</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>0.6752820468792384</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>-14.24748186213457</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>-5.443827245251827</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.109225897098661</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-11.50993577422303</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.75698018345672</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-6.006386899188049</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-2.916937497932768</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-6.017066122293969</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.52278184508938</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1349722473793392</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2618746695221637</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56.25</v>
+        <v>8.22544912103189</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>-12.20843649971022</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2.088635950047554</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>-19.59670123879776</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>-13.28186048898431</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>1.968612358691235</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>7.384665799954105</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.713682811899705</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.156482823882405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.011036955892888</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-14.78521990367427</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-7.198442083947087</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-4.606387709597875</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.57122226218916</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.436182895684614</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-17.63040155362734</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.24083969394795</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>-3.850822804163165</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>-6.769220003059587</v>
       </c>
       <c r="C5" t="n">
-        <v>10.75</v>
+        <v>6.116762888408679</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>10.30999522495951</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>9.312801191161986</v>
       </c>
       <c r="F5" t="n">
-        <v>54.75</v>
+        <v>-8.392175232226386</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>-3.092123758512146</v>
       </c>
       <c r="H5" t="n">
+        <v>3.312634314035639</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.755451271223592</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.791742378452899</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.856589766638171</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-11.06334974006028</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-11.96206624080671</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.12525822394198</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13.56240028570823</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.7201012158033384</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.03532897892024</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>3.616360250476341</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>-6.451197546051243</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3.613956055084139</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>15.38036566465969</v>
       </c>
       <c r="E6" t="n">
-        <v>29.42857142857143</v>
+        <v>-0.3582603910995154</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>15.64643655814006</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>-26.19745104089744</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.219025043752238</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8704706823817122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2.990073504658675</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.917607765355023</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-19.87568914600893</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2.196718878375119</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.571125715117464</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14.77894044741516</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-5.182702182736474</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-8.084936028931876</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>-5.017570435845365</v>
       </c>
       <c r="B7" t="n">
-        <v>27.14285714285714</v>
+        <v>9.154021177020741</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>3.287511096596845</v>
       </c>
       <c r="D7" t="n">
-        <v>10.5</v>
+        <v>-5.297602037670388</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>5.132674331133561</v>
       </c>
       <c r="F7" t="n">
-        <v>61</v>
+        <v>0.9707754934804038</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>9.686449905328892</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-7.020530938773524</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.276621465977682</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7583962432057713</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-14.63514948132119</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.961202770645761</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.610552721798893</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0511345664246089</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-2.345871333751469</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-14.15370742050414</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-4.20645322765359</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56.25</v>
+        <v>-3.427145165267695</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>-8.02277269221619</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>-1.612857116660091</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>4.040508568145384</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>18.8618590121053</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>1.74577812831839</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>2.575503907227644</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>-0.7444591576616721</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-19.18771215299041</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.2651387544921688</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6023020994102644</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24.63242112485286</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.923609647811225</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.015473423336124</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.3471176970524331</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-11.68678037619532</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11.42822814515021</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80</v>
+        <v>7.519330326867742</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>7.910319470430469</v>
       </c>
       <c r="C9" t="n">
-        <v>10.75</v>
+        <v>-9.09387454794739</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14.02794310936099</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>-14.01851062792281</v>
       </c>
       <c r="F9" t="n">
-        <v>54.75</v>
+        <v>5.868570938002703</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>21.90455625809978</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-9.905363251306884</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-5.662977296027719</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9965136508764122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.499347146463991</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1729062783784776</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6856297480602733</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-10.62303713726105</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.735924306351816</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-9.194242342338031</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15.4993440501754</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90</v>
+        <v>-7.832532923362371</v>
       </c>
       <c r="B10" t="n">
-        <v>27.14285714285714</v>
+        <v>-3.220615162056756</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>8.135172173696697</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>-12.30864316433955</v>
       </c>
       <c r="E10" t="n">
-        <v>29.42857142857143</v>
+        <v>2.274599346041294</v>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>13.07142754282428</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>-16.07483234561228</v>
       </c>
       <c r="H10" t="n">
+        <v>1.846338585323042</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.598827942484236</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.818228717773104</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-12.36950710878082</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-13.20456613084276</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.219415656168977</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.96984673233186</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.504928503458765</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.464482094969757</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-6.800247215784908</v>
+      </c>
+      <c r="R10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100</v>
+        <v>2.322536971610035</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>2.930724732986812</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>-7.143514180263678</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>18.65774511144756</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>4.738329209117875</v>
       </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>-11.91303497202649</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>6.565536086338297</v>
       </c>
       <c r="H11" t="n">
+        <v>-9.746816702273215</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.870846037424521</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.58595579007404</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8.206823183517105</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.633761292443218</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.127809269364983</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.220601599944899</v>
+      </c>
+      <c r="O11" t="n">
+        <v>18.96792982653947</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-7.537361643574895</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-8.895144296255232</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-8.158102849654384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.771017094141042</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.411519748166439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.76690799330019</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.271832490360238</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1300189187790702</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.53534077157317</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.646568332379561</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.20169166589619</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.256673477650062</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-8.571575564162826</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-10.70892498061112</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.824724152431853</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-2.234627853258509</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.14000494092092</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4.732376245735448</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.7282891265687277</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8.46793718068405</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-15.14847224685865</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.465149520670211</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.563987943234723</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.140937441302039</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-12.45738778711988</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.73180925851182</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.853173797288368</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-8.838574362011331</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.537251059455279</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.582087184459999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-11.42970297830623</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.577873603482833</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.607845263682344</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10.83051243175277</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.53802052034903</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-13.77669367957091</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-9.378250399151227</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.150352672086598</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.137859509122088</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.150476863060479</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.52731490654721</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.70890510693167</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.35565640180599</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.540017634932024</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.51391251305798</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-3.152692446403456</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.589692204932675</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-7.728252145375718</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-2.368186067400089</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-4.853635478291035</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8187413938632255</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.14658566673508</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-18.67265192591748</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.862601903745134</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-16.12715871189652</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.719318657894335</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.88950596967366</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6428001909546277</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-10.77744777929306</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-7.153037092599682</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.795977489346758</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-7.303666317171366</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.164585895819749</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4557183990381378</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-6.516003476058171</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21.43944089325326</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.339190223180112</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-20.25142586657607</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.864543147694276</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-6.61786464768388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.524333347962239</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-7.925207384327006</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.14736441466899</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.049872789804572</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.657551941701215</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-12.00296407055776</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-3.345012358409484</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4.749453111609562</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-6.533292325737118</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.65454240281097</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.049817109609555</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-12.60883954335045</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.17861947054776</v>
+      </c>
+      <c r="O16" t="n">
+        <v>21.22156197012633</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10.32465260551147</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-15.19369965954013</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-4.842340728662514</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.9290944507747871</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9890742207225756</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.397303090936923</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.72255306742594</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.1150826994366494</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.9953469615000003</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.818063486039601</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7583962432057713</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.499347146463991</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1729062783784776</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2619717229108147</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9496574420661997</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.255546531854623</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.2618746695221637</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11.6316375215496</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1023306101958705</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.81508651047951</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.621034742632707</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.9905969557347</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-6.002168771587947</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6980208499001892</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-3.853135968617602</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.13517345251248</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.621306745210466</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.86016816145352</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-12.37815498826849</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21.33033374656267</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-19.52087799522502</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-1.517850950355833</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.883172064845765</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.809918677350327</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-6.226995198205937</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.081222503572752</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.930009346588328</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.893647569442115</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.496020970210246</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.570154859650474</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-6.929095952606542</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.072995208766093</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.128621188389602</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.296288419236122</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-8.289950109220722</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-5.601810401969695</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.472936051232618</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.103702654334649</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.2090159396414813</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.17327383308782</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.77664895788425</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-5.915713888358299</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.470973811700379</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.021926524338941</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.176812032272203</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.9877685198719</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.254163489880298</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.135096360006385</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.05478807154329</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2100384163275905</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.819529712949639</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-3.10266756593456</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.241663524884421</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.301430543676846</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9699596499271819</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.951570254369136</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-8.182206832334725</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.9238727568546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-10.06017381499702</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-12.14188612787732</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.58110873500068</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.916626939629358</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.241198170521551</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.283455092642799</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1224677284691462</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-8.972543714858315</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7580455819372633</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-6.771617115121117</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.751197334177512</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.470573815021387</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-8.254971967925115</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-3.213858416529934</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.129314542756243</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-5.637245528039747</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-8.222203955664314</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.436872114919123</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.449665711087228</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.069431753711298</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.710383056183228</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.320499373576363</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-14.48084341497324</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-14.07463774376555</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-7.18444221252436</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-2.134471517118472</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.109075655980046</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14.75356216949552</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.576596232020194</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.599385299634271</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.1901620790268883</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-10.02529364637809</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.1851313599238993</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.886586389201383</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.227185603380895</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.27230943552323</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.193465142411723</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.32738913002578</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.087601484568576</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.017117220989414</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.901439917111125</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-4.012204718858363</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.240924818104168</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1259240078179486</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9767609854883172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-7.730097838554665</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2451017425894271</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.979982912454497</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14.51143607795042</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.592708260852069</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.53182457511556</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-7.673475628880495</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.723206367206782</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.833420057383517</v>
+      </c>
+      <c r="E24" t="n">
+        <v>21.89802933217672</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-8.082982853551515</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8.397218421807761</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-5.993926454440222</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-21.23895724309807</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-5.25755021680761</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-7.59132661553698</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.503937864762076</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.417559757771595</v>
+      </c>
+      <c r="N24" t="n">
+        <v>18.76170839215886</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9.504238381860503</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-5.769036556624031</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-8.984146713483579</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.919191715065057</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-13.20233207020642</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.31458765854354</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.79440120721287</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4.691756521047048</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-17.13134529090878</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.53872374165413</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.145398452526179</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.37816311973462</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-15.94427658794367</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-5.993750229537729</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.05243699718183166</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4698059376474206</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-4.500654714792437</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.228499323474987</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-10.67620429382594</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-1.423794850212935</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.202956317118989</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.14438834058749</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.116148780888897</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-11.24642091837869</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-15.34114170735622</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.77676821898509</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.323140119795917</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-7.484865365565536</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.51151975522523</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.156746342928587</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.79297184063826</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6751848141010895</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20.60747924881987</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17.55340842443204</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.255546531854623</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9.715709509543554</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6.453759495851475</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>13.68631557532349</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-9.649234605801045</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.860514599984393</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.58424486849588</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-17.58739486423114</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-11.83258512665775</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-20.392321777601</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.694068344445578</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.175422557959623</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15.02357052096028</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7409478041977519</v>
+      </c>
+      <c r="L27" t="n">
+        <v>16.28615545571292</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-13.80101458214891</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-17.03382439355155</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.255546531854623</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.840654489393073</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.3269474809409311</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-20.67442100039877</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.8912003951278841</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-13.04469500504853</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.696725488300385</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.665982460968483</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.398797863273552</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-5.138669173366935</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-10.59213521888952</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.6267909727317188</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.551423205012382</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-9.857260463355438</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.040465155178444</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-5.302576183724408</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-7.928728322623442</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-1.070303599545578</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-10.35242322419374</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-5.536493053471821</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-11.97877892588848</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19.64725132916389</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3526355197172861</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-6.997255079925856</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.13979910734222</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.123280496908298</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.20969599533223</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.141667000434252</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.575077100473051</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5.305011476105275</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-5.7581824064468</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-2.75051697151644</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-23.01921164735585</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-15.15191062198552</v>
+      </c>
+      <c r="O29" t="n">
+        <v>13.66874267444525</v>
+      </c>
+      <c r="P29" t="n">
+        <v>16.44967713501284</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-2.490360395563783</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.765569630557664</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.112501545435361</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.78880808455238</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.19574911434577</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.279175914807665</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-9.555404406004257</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-16.06446320257572</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.034636358672231</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-7.563507452843034</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-14.22253709597674</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-6.465728842425266</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-10.81548003614395</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16.87141635072565</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.816397569494505</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.07972641316617372</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.7736830764761831</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-8.612842013282636</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15.23124077269657</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.389100436846586</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10.37246154326456</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.903386780836082</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-8.756182533847571</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-13.82799730964336</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9.261775475316414</v>
+      </c>
+      <c r="I31" t="n">
+        <v>19.0941664047013</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-13.98567573819141</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.629692366905709</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-6.506425691218269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-4.871253837646961</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-5.923939242388691</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-8.63990769679816</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.4852162794482699</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-8.309501164110378</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.704568257798388</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5023810944913696</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.389480468664098</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-9.075636620415979</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-5.767713305683327</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.55391225825756</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.009171876243808</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-9.775552447985511</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9933230542922588</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.51387123371789</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-16.69405281121372</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.43360192379935</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-6.626237589458467</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.705986685931594</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-7.632591565425169</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-18.04882100664519</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-16.27542437883163</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4808494666138199</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.597225017214819</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-9.043166251044086</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.385924587773739</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-16.6152006226896</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.6607979864731657</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-12.11016199762457</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-6.518361078021591</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4739867131641401</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-8.604133652839524</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-3.845555442298254</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.06292809214441</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-5.768918695231488</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.356921120651418</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-11.29706854657618</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.298041779152828</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>14.415686206579</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-24.71644500127289</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-7.968952554704768</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.7707212718054</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.397303090936923</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.711458733713088</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-6.039851867158205</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8658978747289992</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1.556772353920795</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.67782061659807</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.544208433012131</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.376026620752022</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-4.118769661224674</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-4.876062240724935</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-4.325581878196209</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.944521423782969</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-4.20984480820263</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.897748568964129</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20.75400798645439</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.711247034316923</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.260235321678411</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.01213922163945</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-4.080753730215514</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-20.38124535177854</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-10.08086310917404</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-18.70791921025856</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.515134840413086</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.184183791895517</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16.76437312275283</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.269273737641627</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.191005288088642</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.294055811834891</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-22.11135309007885</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.356145581085659</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7.708651938869668</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-14.78586245779842</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11.43754043206929</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.384964074944141</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-4.152879139008013</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.327818661062849</v>
+      </c>
+      <c r="F36" t="n">
+        <v>22.70692857804396</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.818662550584952</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.482205863003361</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-4.593608995402441</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-8.498443694647918</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.303358165442456</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-8.560838259088673</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7156623721939247</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4.776574467651167</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.789798257463919</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.336621052869483</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>10.37539944257899</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-5.10016398854747</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-2.698749352933713</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-9.787637157823074</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-4.442932600761116</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.773004930448522</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.569886166453519</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-9.221653241776254</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.696059201056602</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13.55637858804951</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.134349032237009</v>
+      </c>
+      <c r="K37" t="n">
+        <v>18.76795812558066</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-7.73789199103573</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-12.44654703311417</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-17.78720248904279</v>
+      </c>
+      <c r="O37" t="n">
+        <v>14.96044311489183</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.543656563540577</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.5558467091045507</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.799686263198203</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-11.25489047298377</v>
+      </c>
+      <c r="C38" t="n">
+        <v>24.45751979616826</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.292211819752275</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.093947946048929</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.25766623898692</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.810092317367133</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.238840242791314</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-7.904744554453119</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.714683571359958</v>
+      </c>
+      <c r="K38" t="n">
+        <v>18.82024496475034</v>
+      </c>
+      <c r="L38" t="n">
+        <v>13.45420046154978</v>
+      </c>
+      <c r="M38" t="n">
+        <v>15.93186626639397</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-5.112156764311852</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-9.896048202585808</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-1.257869200996482</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.5572491228869461</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10.94191518470948</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-16.92464629714819</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15.29550319460614</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.580078985789894</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-4.268810699474201</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-10.12104375260168</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-16.54856671865769</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.231705839619146</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7331796718840389</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-12.89960899741054</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-12.95078772063616</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-3.357846992901282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>16.69021525289393</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.595913513636048</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-15.03142953118106</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.457430640859443</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-2.727235697476705</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-26.96886642941572</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.5429486651781221</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.30934530208678</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.962063648134183</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18.48956094945345</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11.26565029547757</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.688886905548306</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-11.0652590874167</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25.73359803249861</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5921843401448825</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.139292919129462</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.2412508711000328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.98084760767855</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.443604119239425</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-5.736620068802363</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-5.468589412403921</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.3275327021599839</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-5.434247711337649</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-7.128457826771644</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.064302276918968</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2.549772174208553</v>
+      </c>
+      <c r="E41" t="n">
+        <v>15.03992988582689</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-26.50969808393012</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.91506851922462</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12.46085192497629</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-20.73390232408149</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-3.426875940803487</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-3.714408659957915</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-14.07511694717821</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-7.778166875908753</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-11.10575845465829</v>
+      </c>
+      <c r="O41" t="n">
+        <v>17.52270443423623</v>
+      </c>
+      <c r="P41" t="n">
+        <v>9.356783931474611</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>12.71555094994159</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7.216720640432351</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-11.29051771217229</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-5.245202662797737</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.89374561227918</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-12.22127808891945</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.129984301723881</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.9953469615000003</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-3.748208075495975</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.109599682034915</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.442633114860397</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-3.609661658190799</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11.59329803364248</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-10.81063327599897</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.159356069442637</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.931012579683838</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-3.095464393139903</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.26133022242118</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-12.51113576385303</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.24027019206901</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.84902136442989</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-5.227230205190395</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.49009225836889</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-7.043436905427592</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-14.0846129636356</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-15.56629173523904</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.060099513456397</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-12.80429352496283</v>
+      </c>
+      <c r="K43" t="n">
+        <v>17.54794181984365</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-20.81929407883722</v>
+      </c>
+      <c r="M43" t="n">
+        <v>16.96456368290038</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.110174672026184</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.9671311187039239</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-5.449190868089497</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.991361143520709</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.3763470242484837</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11.03301882016521</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.142276486620396</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.503017614618776</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-3.636122122138559</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5694562372106746</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.078017688920592</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-17.10168392656626</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-13.48185422105713</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7.43264094022715</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.708654381279419</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.839833363526791</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1843393306539316</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.47581705361671</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-5.397596803093615</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-7.783047254023127</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.958452550976816</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-9.78372777615032</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.082527557144719</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-17.0258360423784</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10.29155637325644</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.72597482413043</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.560297343138757</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.826909839455139</v>
+      </c>
+      <c r="H45" t="n">
+        <v>16.65474444462577</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10.14370065018131</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-18.40874231331645</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-12.79576966735702</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-6.248185776956788</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2609105021083379</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.17659020469123</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-7.257438131534656</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.867667644770783</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-7.553829323533225</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-6.115178029919482</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-14.06661096848222</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-9.232332461109042</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-13.51684605616334</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-9.758732529773328</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10.5364179660784</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-9.49398888831943</v>
+      </c>
+      <c r="H46" t="n">
+        <v>26.32382064837391</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.933179008808892</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.848361236948739</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-8.583577801812135</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.003098794089913</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-5.756378262377739</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.220098146453614</v>
+      </c>
+      <c r="O46" t="n">
+        <v>25.60084538268795</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.9605989972464988</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>11.49273326285676</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-7.031764251258874</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.349884904969617</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17.7080063563551</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6.269670577877674</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.12448557996929</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.077519354554754</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-5.624667758942676</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.324077390555209</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.725544496267299</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6.218099622171964</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-15.70224719890456</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-7.271371758248685</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-2.475186355515048</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.7443342910004629</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6.20672097550678</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.777010009332538</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-13.35344358710101</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.801978510059632</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.105857452838231</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.597904479310398</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.80780725554622</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.339221545489041</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.591800792284367</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.7016571145864703</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-16.60960933515991</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.296182191325858</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.076876871631112</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.715788371953734</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-12.76748575820309</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-10.81056540408262</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.53152853332904</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.3955515385665504</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.815006973726244</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.2831837613046117</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.2975613949574519</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.9290944507747871</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-5.160447282173739</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9612077694098337</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-4.622752887050424</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4.344962274323156</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-3.091721234686394</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.221337716337128</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-4.787486216634774</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.55756125573521</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-8.946073022195039</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.86871644161359</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-4.397310582741749</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14.46977884353733</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.965547765115746</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10.31844539468635</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-14.85560373036972</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.670502658692588</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.89630795623437</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8228398927542419</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.65480375065351</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-5.172884501003722</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14.0934744018558</v>
+      </c>
+      <c r="G50" t="n">
+        <v>22.9889812361925</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3.628385604396591</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-4.455025214007718</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14.53384477117701</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.79572145730712</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-5.228600271532683</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-4.201868170958573</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2.817846088605072</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-13.44450511034277</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-9.186519464841982</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-10.04140766752068</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-7.677975651041285</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.3468488738678118</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.342147325365207</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.50500492814077</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-9.98354040738791</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.843223984765837</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2.139888442255089</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.4946370965243295</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.748194921666038</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-11.22722021562299</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.824097461840506</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.664522082130561</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.924512640081491</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.891686439078181</v>
+      </c>
+      <c r="O51" t="n">
+        <v>24.55300139910894</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-6.377399842513159</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-5.309969550018176</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-6.231405264247644</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-5.554771191602547</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-6.373871273065177</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11.89016531107552</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.20504247989855</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-5.707462937494762</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-8.323555731042287</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.714155563864041</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-5.522230442809713</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6.329318177555107</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.029230208512997</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-15.15744114997232</v>
+      </c>
+      <c r="M52" t="n">
+        <v>15.47505201330062</v>
+      </c>
+      <c r="N52" t="n">
+        <v>17.95877673095522</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-6.127886904843862</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-3.877015599359841</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.85865390724905</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.34456789987025</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.585442726728305</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20.10204538766349</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.769472274940494</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-7.982972445384537</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-13.79319228014527</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-7.309300399419191</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.3312697287379709</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17.94557863517788</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-5.176112990361714</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.237879516388985</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.1642289607275207</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11.88393273448084</v>
+      </c>
+      <c r="N53" t="n">
+        <v>25.26932425873622</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-5.308687729203206</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-4.894394425182221</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10.44160877069072</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6.818914896263114</v>
+      </c>
+      <c r="B54" t="n">
+        <v>18.46707325736034</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.839281853259639</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.592920907870595</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.906548306923093</v>
+      </c>
+      <c r="F54" t="n">
+        <v>11.08703580582908</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.204821811973641</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.072740311072978</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10.66674689589154</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.69295590445673</v>
+      </c>
+      <c r="K54" t="n">
+        <v>13.82158991037527</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.487098875896427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.671180803168544</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.467136864333228</v>
+      </c>
+      <c r="O54" t="n">
+        <v>12.06508966508357</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.2618746695221637</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-3.933388123273607</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2874482293481749</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12.78451862607299</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.910990680199034</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.4643654815614881</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-13.59856140979919</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.462535660272207</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6.454841811410754</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21.6325472330546</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-3.077782349530009</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.19150327663939</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.493836837107553</v>
+      </c>
+      <c r="M55" t="n">
+        <v>15.77453279763474</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.952955323869521</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.790215257703392</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.078965097165392</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.866091231563581</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-4.464336145505283</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.940899928983076</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10.73631749859772</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-10.2651529941106</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.32969674146876</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-7.001208149391732</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.95046628924842</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-15.23186904783775</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-5.589218472715883</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.772118750645209</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.6552402923434</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.657502610729878</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-5.551995266931984</v>
+      </c>
+      <c r="N56" t="n">
+        <v>18.8115706944059</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-14.48013900416244</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-21.98805956620082</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.400144500533324</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-5.020542243526112</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-10.21232817130713</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.083564472993533</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.438007137711988</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-5.640786307367284</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-12.80304398670894</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8.724573282801448</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.50201177958661</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9917586377938291</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18.46636996047666</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-10.70084766326153</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-15.25525170924739</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-6.919080698812444</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.455860163554978</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.433394493226918</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-2.412360578563299</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.520553965142968</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-12.51539424190444</v>
+      </c>
+      <c r="B58" t="n">
+        <v>14.4376460407326</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.821511783925688</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.397303090936923</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.427253463777041</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.567532191537839</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.697672802322039</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.477085600173149</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.427227598675439</v>
+      </c>
+      <c r="J58" t="n">
+        <v>13.29152530132431</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.965211697014701</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7.090037575885123</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.8973569428722672</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.40117215449473</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-6.763923020592697</v>
+      </c>
+      <c r="P58" t="n">
+        <v>18.00940432910816</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-0.4015795064434341</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-14.30775102118048</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.281044149107893</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-6.810516574748808</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.40643548988724</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-6.526239793023909</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-4.461834332147797</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-18.89540730945531</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-4.523063192490767</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-24.23879326628957</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-15.83902823485723</v>
+      </c>
+      <c r="K59" t="n">
+        <v>7.604146561442974</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.858001586508322</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.254575617849648</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-9.66976143129213</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.4771135614197985</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.03602539090568405</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.2618746695221637</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15.03398301767151</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8.773622905756714</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.209641738296639</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2688583899453078</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.083828079475525</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-20.41734868424291</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-2.471773825205969</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-6.819842479977986</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-10.01620009894916</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2.811002928859549</v>
+      </c>
+      <c r="K60" t="n">
+        <v>17.97686526849522</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.408428612670098</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-5.711789897827968</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.725827813561586</v>
+      </c>
+      <c r="O60" t="n">
+        <v>13.99355436586002</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.246336829127689</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5963036992017413</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-6.469367777055739</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.982233136135899</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.934853854217496</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.951932200277323</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.351718016819695</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.49552715319335</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-5.352352115605679</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.17394065634326</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.975996046923997</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20.75260872625265</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-6.891878180895679</v>
+      </c>
+      <c r="L61" t="n">
+        <v>17.35963803165249</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.979107834626478</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-6.514180036144483</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-4.838858340543216</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-3.203473081943202</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4.241659464019164</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-0.6786090940955828</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-5.73700003938579</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.2435459226098284</v>
+      </c>
+      <c r="D62" t="n">
+        <v>21.42270358611864</v>
+      </c>
+      <c r="E62" t="n">
+        <v>17.27543170100711</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.363236696740321</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3800347816820029</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.200313267182613</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.135179727304166</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-10.22792565198406</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-2.573765374233451</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-16.68584073877589</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.992231226052793</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.47195939702741</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-4.83186462299374</v>
+      </c>
+      <c r="P62" t="n">
+        <v>15.73986763290033</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-12.25765663002341</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-14.6437488020982</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.24451818559972</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10.47098302612154</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.83927691457869</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-4.588842628689401</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.78680833431296</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.3850846950070721</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1.726272999408196</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8.836599374866724</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.523228784134196</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-15.76392156984249</v>
+      </c>
+      <c r="L63" t="n">
+        <v>14.76540349725896</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.80091354147451</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-6.255627015095294</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.95803533437409</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4.940301862827388</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.606737658239071</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-5.503051538454201</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-6.716233679380515</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.2555407099144528</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.72729019259365</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.436001545944324</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-3.706143320861059</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.716987106483447</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-28.48542620630075</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11.48765700372103</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-17.39713778778099</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-3.624409414031322</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-11.19669894626144</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-12.94681475720906</v>
+      </c>
+      <c r="N64" t="n">
+        <v>11.60826787378519</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-4.677012013118913</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.465038817307158</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.4692057887918407</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4.770408272231215</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7682189106025537</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-12.8299222418857</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.9626681944714</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-4.937565831613125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-15.56581898659751</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-4.281151609659125</v>
+      </c>
+      <c r="H65" t="n">
+        <v>15.00759790634311</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8.50221742113493</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-3.486521344078592</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-3.492577043184288</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-3.216350512173826</v>
+      </c>
+      <c r="M65" t="n">
+        <v>20.76747983560841</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.819354522315534</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4.300416471910697</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.387891590265135</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-2.590421458207031</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.963498490849783</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.7160125941406394</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.3722223650984159</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7.276295436369798</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5194588580729943</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.326400772155792</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.8071658010858231</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7863519031609059</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-19.98200684532108</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.163276747024815</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.464884758979927</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.980101098596522</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-28.96255378193689</v>
+      </c>
+      <c r="O66" t="n">
+        <v>20.88374704780728</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-1.395896281551738</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>11.08182816737516</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-10.39905927125531</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.127739050625697</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-10.53415563173656</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-6.237689606958051</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19.14031353866786</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1.906824007633466</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.174328731797229</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.700677306887542</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.956818879726047</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.504189051435764</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.649610024662254</v>
+      </c>
+      <c r="L67" t="n">
+        <v>24.03415585238275</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.5761879703358539</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.010990467149675</v>
+      </c>
+      <c r="O67" t="n">
+        <v>10.50654396007612</v>
+      </c>
+      <c r="P67" t="n">
+        <v>11.05525932957984</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>11.8703030556038</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6.387302220291846</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-11.43004912730484</v>
+      </c>
+      <c r="C68" t="n">
+        <v>16.33431532301096</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-11.46345393018688</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.026354652390332</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-7.542758500193579</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.6413834659299255</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.287624103034804</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.213572154502731</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.219207542352848</v>
+      </c>
+      <c r="K68" t="n">
+        <v>16.13711269058647</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.535343015139798</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-2.441566352906487</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.640871682883573</v>
+      </c>
+      <c r="O68" t="n">
+        <v>11.89470488924641</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-12.27607815136992</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5.97400069849858</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7.011727423108983</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-2.975635033599919</v>
+      </c>
+      <c r="C69" t="n">
+        <v>13.7570681331162</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.500555870325267</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.255764534715422</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1.730718242838696</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1557904758146753</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-10.96275086895202</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-14.40050882594294</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.94505063224972</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-8.469613483183277</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-9.913923494563072</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-21.53390113603715</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-6.389617476895022</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-13.23089793407498</v>
+      </c>
+      <c r="P69" t="n">
+        <v>16.42015160136369</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.2618746695221637</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-6.881503451777238</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22.52435805344309</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9.817654869915943</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-3.248313835086225</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-24.99405714873573</v>
+      </c>
+      <c r="F70" t="n">
+        <v>22.90942572590742</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-13.89572466763596</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-16.45398746956892</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.2257043200964</v>
+      </c>
+      <c r="J70" t="n">
+        <v>24.39752406339273</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13.84272818510518</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.639091200523596</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5.947543416652859</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.534155587803077</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7.589285897867652</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.811914239693758</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.042011039518761</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-0.6259312789952242</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-7.539645888666763</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.806750768667741</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-16.92956814195385</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.9833962679474989</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-9.885911071509174</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-11.03589317215771</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.798941511534784</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13.92002286344599</v>
+      </c>
+      <c r="J71" t="n">
+        <v>9.18316606002313</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-15.70500603623177</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-9.896281365703375</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9.407711879882159</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-9.824873935383096</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-2.246331499970246</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5.500520990245519</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-9.683444548636352</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.053755061459599</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-13.34025494918204</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-6.013676439512137</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.19781934142537</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-15.92993733531669</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.40474737960399</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.1963779892668122</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.524899544171477</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.239141340646614</v>
+      </c>
+      <c r="J72" t="n">
+        <v>13.64140429973844</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.252245026479073</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-4.29405541125253</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.222975030322838</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5.432980290363879</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.4886007032570433</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.4059169120388239</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-7.019916878067553</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-6.629009175509482</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-14.02605271799693</v>
+      </c>
+      <c r="C73" t="n">
+        <v>17.49576743186939</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-12.43863235391285</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-6.929051977959073</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-7.184072655691974</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8.949243769444413</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-2.949496782920278</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12.47742072673734</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-6.734906242438685</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.78994162223802</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-8.353470532597573</v>
+      </c>
+      <c r="M73" t="n">
+        <v>21.45149127773388</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-11.87598419029513</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.098207102270275</v>
+      </c>
+      <c r="P73" t="n">
+        <v>6.337768809320985</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4.137990974514983</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1.852876588777083</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-1.298206997334262</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.438114719791096</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-1.470020016284886</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9.638791167949098</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22.10523001591351</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-5.574917850078336</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-13.69802979579078</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.8828204835125482</v>
+      </c>
+      <c r="J74" t="n">
+        <v>25.79709337654318</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-8.036745679697308</v>
+      </c>
+      <c r="L74" t="n">
+        <v>16.39116805444068</v>
+      </c>
+      <c r="M74" t="n">
+        <v>16.77700814076441</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-5.535882417079946</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5.689830791852754</v>
+      </c>
+      <c r="P74" t="n">
+        <v>16.28396623128538</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-3.791277409874871</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-2.035803601023618</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-5.816809139486438</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-10.14756730692867</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-6.492775450660071</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-12.23940266762257</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3408346825922607</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-7.699732310586418</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.337859117907477</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-15.55895646203627</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.308802322144571</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8.335289616089247</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-19.93735642571455</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.740565698475721</v>
+      </c>
+      <c r="N75" t="n">
+        <v>12.27668992473292</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-12.09641018691205</v>
+      </c>
+      <c r="P75" t="n">
+        <v>16.72572386837703</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4.190190093660452</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-7.050118557584089</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.5576907765770601</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.583269125217224</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7600539141241149</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.387559924463692</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-9.206735930793663</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.69360824036078</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-14.1371449690498</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-1.112260613487003</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-9.039076414647898</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-7.355299425897666</v>
+      </c>
+      <c r="L76" t="n">
+        <v>12.36093175210437</v>
+      </c>
+      <c r="M76" t="n">
+        <v>10.91310120594269</v>
+      </c>
+      <c r="N76" t="n">
+        <v>6.09138120907177</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-10.92312764672579</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-3.164084496948019</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>12.13097699979183</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.417169136399048</v>
+      </c>
+      <c r="B77" t="n">
+        <v>23.19329539981694</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.933178393943719</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.920491164900316</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.091164642025014</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.335409047822823</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1.524698363805439</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7.081086766885905</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9.567023167945841</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-7.859894605079495</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-13.31232953557778</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-18.36205373103297</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5.079913269125437</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-11.03366606173874</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-21.52890592952483</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.885786045309641</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>24.92999517432791</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-0.06070911539893323</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.384907744516418</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8182935854756501</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9888965319114267</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9.190764829877686</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-2.902745441886514</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.67392314071903</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.216978061960136</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-6.680904536430488</v>
+      </c>
+      <c r="J78" t="n">
+        <v>9.920423495365227</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-1.749597566954086</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-7.557451594928447</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5.365098435704035</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.9496574420661997</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.2818115736912825</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-0.09118996644203543</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>10.85895565831578</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4.746982328799528</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.2502695874514392</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.177662992002871</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.90207549017313</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.578103063518622</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1035261984338061</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-13.1183623235016</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-10.65113663075373</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-3.052247043546676</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-6.095122021592831</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-1.86971302985446</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.5664992489710716</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5.296927543567308</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.7049877805909122</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4.865016438262019</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.6447441481012024</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-19.75466566353871</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-9.393353938187543</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-1.440875557216155</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-12.09694742841108</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.999287299962045</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.30750832343697</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12.18761851697317</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2.13442870930208</v>
+      </c>
+      <c r="H80" t="n">
+        <v>14.90726136849952</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.486674572021116</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-3.370859711180394</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-6.134026635409398</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-3.024696864881284</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-3.881768185412287</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.704162223754877</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.605739810498646</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.03046020153414469</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4.369381697463498</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11.90646274786341</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9.495541354413238</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-14.84897968449904</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-25.53921134901955</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9.343199112392737</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-13.66878698415421</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2.247654018926835</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-11.7011302605936</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-18.0198043758002</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.41462728204788</v>
+      </c>
+      <c r="K81" t="n">
+        <v>7.591551603026469</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-5.765104007267194</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-25.9104229214491</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-5.462444482524828</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.918040054025465</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-14.78911568774129</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.833599197791556</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-0.1530984917299556</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.792914996010884</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.195803684141532</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-9.730689408815556</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.96571501664491</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1.5852957302697</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.2730453950993186</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-9.33267959073196</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-4.432822511915103</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-8.848027140269009</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-1.72946059923423</v>
+      </c>
+      <c r="L82" t="n">
+        <v>17.11708480142343</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-13.71901142931356</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-16.13561397876741</v>
+      </c>
+      <c r="O82" t="n">
+        <v>14.71170327493608</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-2.093236771518661</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-6.690727386599166</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10.39904687396076</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-6.056155397368642</v>
+      </c>
+      <c r="C83" t="n">
+        <v>18.26009713546936</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.779258713392691</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-4.879114081457026</v>
+      </c>
+      <c r="F83" t="n">
+        <v>21.57308213265503</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-6.057149230033384</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.42095372009307</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.992925804064919</v>
+      </c>
+      <c r="J83" t="n">
+        <v>13.01741289398798</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.61511196726853</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.3200414906576662</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-7.534178703461834</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4.599721429391164</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-6.777153697521062</v>
+      </c>
+      <c r="P83" t="n">
+        <v>20.13387247526623</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1.365353310827374</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-3.653215513121087</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.846803058649084</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-13.47126289529696</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-9.716140385106515</v>
+      </c>
+      <c r="E84" t="n">
+        <v>12.00413907944425</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-6.568942789713957</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-10.4691098268194</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5.366527525272861</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.85704154662997</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7.189533106650668</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.960476858058163</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-7.567950885694607</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-14.21810666741844</v>
+      </c>
+      <c r="N84" t="n">
+        <v>15.01333651955487</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-3.226798388421357</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-2.508330164550474</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>13.28194141849058</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5.562300094006599</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.558877720816076</v>
+      </c>
+      <c r="C85" t="n">
+        <v>21.65002344901084</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-6.43518230380143</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9.278401280812371</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.570131248970845</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.685922788632569</v>
+      </c>
+      <c r="H85" t="n">
+        <v>15.28468426412532</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.078357562896238</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.382960790496329</v>
+      </c>
+      <c r="K85" t="n">
+        <v>10.72507337309802</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-3.649527295428853</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-8.392096673390064</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-10.44809194021034</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-19.66356589376002</v>
+      </c>
+      <c r="P85" t="n">
+        <v>20.56207129940322</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-11.03208365721683</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-2.21253623585772</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-2.768132998889206</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.074066978091007</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.157372125392968</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.604734883597454</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-5.830774385689384</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.671217137864115</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.825799504882997</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-2.486911261835471</v>
+      </c>
+      <c r="J86" t="n">
+        <v>16.07345576019993</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.909749516382513</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.348777860498174</v>
+      </c>
+      <c r="M86" t="n">
+        <v>6.628812686674127</v>
+      </c>
+      <c r="N86" t="n">
+        <v>11.73473857485325</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.81021558703707</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-12.96831947955847</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3.996879517526416</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-6.51356893791829</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-5.286166817497568</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.863640187550932</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.38283071433636</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2127157673606165</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.088330125989638</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17.02214944635238</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.407531794885683</v>
+      </c>
+      <c r="I87" t="n">
+        <v>26.01683114180395</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.655096456315442</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-17.60762759155818</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7.533416211045325</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.811583848827778</v>
+      </c>
+      <c r="N87" t="n">
+        <v>12.89752754082746</v>
+      </c>
+      <c r="O87" t="n">
+        <v>6.731813512699584</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-1.384559839837738</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>-12.24298236289366</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-2.090232572860253</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-8.505204542093001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-5.805234498047227</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.885784044206096</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16.69904504351406</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.946715298229811</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-11.95883062035184</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4.446026682201407</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.96631486645651</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-6.097829043193822</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-1.340171666729177</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.1468819472919709</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-7.848983130822401</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.482804338438591</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-1.209481486077816</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4.195324439070277</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-8.874921778021001</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-4.374583003234104</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.223813578277714</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-3.72833152091767</v>
+      </c>
+      <c r="D89" t="n">
+        <v>17.26963851233405</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3.996361856146024</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.246847257518859</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.3259083187309</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-17.60808811980776</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-15.25656314570095</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.62584103427182</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-5.518581458924467</v>
+      </c>
+      <c r="M89" t="n">
+        <v>25.58199285668252</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-5.642475986573886</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.84551303197037</v>
+      </c>
+      <c r="P89" t="n">
+        <v>15.42109952567876</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>20.06092888159123</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-0.6786090940955828</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12.08366230593142</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10.24062525811462</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.925269492011831</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.783610761666377</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-5.511857163285335</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-8.181988834223072</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.03374457410952052</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-1.701846225249284</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-4.532280493272752</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6.963874474567153</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.553052085705108</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.8840688629184735</v>
+      </c>
+      <c r="N90" t="n">
+        <v>14.77530081055262</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-11.41689114133505</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-1.936594592797181</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-7.168223206028049</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-18.6653661707306</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.8268068584269925</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.217475083832835</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15.13449743242131</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.308116845547776</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-10.24186824329205</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18.54092566334188</v>
+      </c>
+      <c r="H91" t="n">
+        <v>12.21033695525353</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5.820977034686158</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-2.264840988498319</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-9.594392367234798</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-3.72206776071053</v>
+      </c>
+      <c r="M91" t="n">
+        <v>10.88748619704186</v>
+      </c>
+      <c r="N91" t="n">
+        <v>18.84586305934609</v>
+      </c>
+      <c r="O91" t="n">
+        <v>15.43243528272189</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-4.888494217862741</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-11.19617433289011</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.408862469112039</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-17.68439365562852</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.231677141847815</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.476025862986687</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-4.660365018682422</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-15.94703067266795</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.136001065697165</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-5.327008396619114</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-11.69916835710288</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-28.72262213281649</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.2751490505063626</v>
+      </c>
+      <c r="L92" t="n">
+        <v>17.72251596669744</v>
+      </c>
+      <c r="M92" t="n">
+        <v>16.6125921454787</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-4.570962565862718</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-6.022120603617806</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4.687742560750237</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>-9.983854391882915</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.01791899819466</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.660802783846902</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12.26933223884308</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-1.001540764799528</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.036737501769659</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-8.779825867565611</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.9953469615000003</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-2.264788919015268</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.673655068161781</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9.135846262332494</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-8.031789506803449</v>
+      </c>
+      <c r="L93" t="n">
+        <v>14.92688568959522</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-2.711236010425688</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.2136729434843616</v>
+      </c>
+      <c r="O93" t="n">
+        <v>-7.472116791478234</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-24.24240260272942</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>8.840453963610496</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7.368438970924334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.813275571182134</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6699071722487192</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.159392177040995</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-15.62545856886543</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-5.290526773462948</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7.942646796218272</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-12.54289423169249</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.935579321666293</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-13.56581804623405</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4.664299824335264</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.3564148229748357</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-16.15131815905509</v>
+      </c>
+      <c r="N94" t="n">
+        <v>11.64739354457171</v>
+      </c>
+      <c r="O94" t="n">
+        <v>-7.345915767980492</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-8.10252437014381</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.005691972309429</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11.48637349428715</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-10.15821818978397</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6167984984797166</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.288165003305729</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.93105607263144</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.764415552772252</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3.670278390833223</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.8614388304637476</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-10.72139011985607</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-29.21350483494607</v>
+      </c>
+      <c r="L95" t="n">
+        <v>4.365598041576678</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9.039348410861953</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-23.62932435541838</v>
+      </c>
+      <c r="O95" t="n">
+        <v>-10.09730704709938</v>
+      </c>
+      <c r="P95" t="n">
+        <v>6.191542610051978</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>20.57495469711699</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.2079370767540789</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-7.280029412291345</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.828964411048402</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13.74876419148185</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-6.459641791245353</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-7.991920066502535</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-4.827435221820324</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-9.533286082587123</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.226703159947955</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16.24678458469561</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.230792731160291</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-2.523535021262876</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-2.918112689155441</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-15.63190808696657</v>
+      </c>
+      <c r="O96" t="n">
+        <v>8.83109777147159</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-0.7783719701280203</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-1.804799135906257</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31.93107567844861</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.987529083656862</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-7.517910500951843</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.263575962055433</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.48445709196755</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.132704105377645</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-14.38277978317367</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9.192289345752036</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-6.68144085538994</v>
+      </c>
+      <c r="J97" t="n">
+        <v>18.73297776217546</v>
+      </c>
+      <c r="K97" t="n">
+        <v>10.80048065714649</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-4.473218956587512</v>
+      </c>
+      <c r="M97" t="n">
+        <v>12.81016361735113</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.678555105274033</v>
+      </c>
+      <c r="O97" t="n">
+        <v>8.527736751222195</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4.847328172944747</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-8.463566549908736</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-0.6786090940955828</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.9290944507747871</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9890742207225756</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.397303090936923</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.72255306742594</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1150826994366494</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20.62524919243145</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-10.67532914254273</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.2421945667275807</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.12220555415429</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.7964139124571514</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4.523717962497339</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-10.6239352814688</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4.283070972076485</v>
+      </c>
+      <c r="O98" t="n">
+        <v>-1.871442650045488</v>
+      </c>
+      <c r="P98" t="n">
+        <v>9.857299956798629</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>11.87386051564751</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>25.89563642018614</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5.796331732135757</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.257963165821665</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.94384301577336</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-3.531662928106884</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.384838434616912</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.954014101390294</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13.1759753560796</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-10.06542565279641</v>
+      </c>
+      <c r="K99" t="n">
+        <v>11.39878561129045</v>
+      </c>
+      <c r="L99" t="n">
+        <v>13.17115067339865</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-1.180685269910787</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-21.21854899008595</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-6.078219870944324</v>
+      </c>
+      <c r="P99" t="n">
+        <v>12.96994546561109</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-0.2286806229888212</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-9.993022322949107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-5.047749212282175</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8.406200265045531</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.467335682013793</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.389320991696943</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-3.668244118146875</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-3.917581490438219</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-9.224101844985025</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16.15375689469442</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-3.223204692113399</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12.17158520825496</v>
+      </c>
+      <c r="L100" t="n">
+        <v>15.21316051922451</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9.983108981479603</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-4.316203127180484</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.255546531854623</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-0.2419560639091617</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-9.037018607301281</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.24359281721603</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-11.79039791159802</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11.87679388461564</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.646172972983931</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.011596558728393</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.832878715461422</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2.589049737040773</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5.866938014752748</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-4.749036566225245</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8.712972974572441</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-13.45979680246749</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.263795795464118</v>
+      </c>
+      <c r="M101" t="n">
+        <v>19.38928999058285</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-10.00331324605575</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-6.777449705248515</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5.13907849658915</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.79581781939598</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3.506300992735592</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.891871301476635</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.347214685617699</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11.09699841956223</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.098186569285126</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-2.412576546185424</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.725737012027313</v>
+      </c>
+      <c r="H102" t="n">
+        <v>18.99881934895216</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-1.326337463825735</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.7583962432057713</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.07080669286973</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1.203811639535982</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-21.72669546014036</v>
+      </c>
+      <c r="N102" t="n">
+        <v>8.474216771504215</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-5.353281859539227</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-0.9053328230416078</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.319803305690145</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.904996797790664</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.094518171390395</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-4.354863705698434</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.131057981760828</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.595466775839172</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.38810480887503</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6.153674840130535</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-9.354387020445953</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.85982116175032</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-5.35963445114048</v>
+      </c>
+      <c r="K103" t="n">
+        <v>8.080577982811452</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3.672873134013406</v>
+      </c>
+      <c r="M103" t="n">
+        <v>18.38183676795122</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-2.234659823718522</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-3.493167961181975</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-0.1941960588773261</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-3.031797828342754</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7.9994190194205</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-16.16310608436588</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-10.53682419146354</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-10.67802921579193</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9.503075919735757</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17.10613372581925</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1.044492185374715</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-1.688217231900106</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7005216311318139</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11.61878302608191</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-9.273531341905741</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.383689827347851</v>
+      </c>
+      <c r="M104" t="n">
+        <v>9.751976297824298</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5.010941699398453</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.895816165987434</v>
+      </c>
+      <c r="P104" t="n">
+        <v>10.01046092567141</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-27.03232292999237</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.778753195309076</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-6.540756831274238</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-18.30632896856457</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5.112025995249807</v>
+      </c>
+      <c r="E105" t="n">
+        <v>13.73658545162958</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.374485146276919</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9.528745472029389</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16.12278257988645</v>
+      </c>
+      <c r="I105" t="n">
+        <v>13.14914453584047</v>
+      </c>
+      <c r="J105" t="n">
+        <v>16.39964529371393</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7.421274910718923</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.754336389015928</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-16.01965811897168</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-2.460624881299486</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-8.432465953161918</v>
+      </c>
+      <c r="P105" t="n">
+        <v>21.70942717497814</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-1.758858124323366</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.232048067844857</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5.514853760404676</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4360244637245372</v>
+      </c>
+      <c r="D106" t="n">
+        <v>16.95051040430753</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-6.22649361734452</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.946074552372427</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-7.424705856980482</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-13.20022511220706</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-6.117690909052854</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.3703679704841202</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-4.293022245172599</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-6.92420979873856</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-14.06317463671834</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.8310557262869477</v>
+      </c>
+      <c r="O106" t="n">
+        <v>-15.04720374031002</v>
+      </c>
+      <c r="P106" t="n">
+        <v>7.600559636896026</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.8243975293450329</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-14.57551499464931</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-3.092090770498634</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-7.521564055905832</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.191745104191805</v>
+      </c>
+      <c r="E107" t="n">
+        <v>13.40450446023145</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-18.75172469645744</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.150260791474172</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1.601327955666404</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.713400764504657</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.131966282376891</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-7.519693317388191</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-3.190539356666182</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.2619717229108147</v>
+      </c>
+      <c r="N107" t="n">
+        <v>10.76007138598598</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.2131164867194222</v>
+      </c>
+      <c r="P107" t="n">
+        <v>19.01190685753008</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-0.6066081381462077</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-7.084067669104628</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-15.13714392612827</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-18.03139676255945</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-15.8413594300549</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.671266510114834</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.087250232299338</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-15.81190702032133</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8.950383140761154</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-4.830610516834395</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.467930119855494</v>
+      </c>
+      <c r="K108" t="n">
+        <v>16.12220628255425</v>
+      </c>
+      <c r="L108" t="n">
+        <v>8.968393158655319</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-2.685306479058323</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-8.911922254152874</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-21.51815401329305</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-7.191533192424201</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>-2.111302388276944</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-9.871795271511839</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-1.312569670923047</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7685188295876821</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-2.248559818080786</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-6.500025808234597</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.686546719667277</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.419406495694091</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-10.90399077442846</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14.1093237974627</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.9858813228426173</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.499347146463991</v>
+      </c>
+      <c r="L109" t="n">
+        <v>7.082144232565572</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.332161312635017</v>
+      </c>
+      <c r="N109" t="n">
+        <v>9.53136633913245</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.871241652018242</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-6.124373746404379</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3.615035252061016</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-11.43726207320662</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.085597057765231</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.332299906444608</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-2.081168572725397</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1.285375114389308</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-18.81849045497639</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-5.487249077409615</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9284490114111471</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.598563919974004</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-10.27675140925958</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12.65707840864701</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-8.661748482145008</v>
+      </c>
+      <c r="M110" t="n">
+        <v>9.694572005267368</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4.271943618716849</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-6.462273098438031</v>
+      </c>
+      <c r="P110" t="n">
+        <v>17.75310892609512</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-11.9363683175648</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>9.191541736100016</v>
+      </c>
+      <c r="B111" t="n">
+        <v>10.00582318042978</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-6.706202090766449</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.92465300064329</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.500465145989528</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.88693629279857</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.603218387712207</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-1.343087414705478</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8.108082731597822</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.93488720552213</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-17.48531973238181</v>
+      </c>
+      <c r="L111" t="n">
+        <v>13.04340242878153</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-16.62491988035674</v>
+      </c>
+      <c r="N111" t="n">
+        <v>10.32546204341657</v>
+      </c>
+      <c r="O111" t="n">
+        <v>11.26705136827583</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-10.90966430215198</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-4.108142879545848</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-11.05704668485936</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-2.149210302887353</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-3.080342841857413</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.796605322693399</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.10308746119608</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13.95683810789956</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-5.621680265783021</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-2.092218737445278</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-16.8343819222095</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-8.058700664961888</v>
+      </c>
+      <c r="K112" t="n">
+        <v>9.648516330974577</v>
+      </c>
+      <c r="L112" t="n">
+        <v>16.15582823548232</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-12.34348871879922</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-5.924642591528943</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.2640575695892703</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2.801611588196068</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-8.096035199216461</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-0.6786090940955828</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.9290944507747871</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9890742207225756</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.397303090936923</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.72255306742594</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.1150826994366494</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.9953469615000003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.108740191586179</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.818063486039601</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7583962432057713</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.499347146463991</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.1729062783784776</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.2619717229108147</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9496574420661997</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.255546531854623</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.9574170655440724</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3.696421921980939</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-1.073021440042289</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.477169258102776</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-15.70876152068499</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-11.26767468909805</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-11.93925006399055</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.429430947637067</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17.32514999485092</v>
+      </c>
+      <c r="H114" t="n">
+        <v>22.31300146192632</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.380511014407571</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5.008444749444569</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-18.01057734152739</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-5.426737997340218</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-7.877837519082389</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-6.20847598251116</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-1.681438185847896</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-4.720905776971273</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-19.79299810375788</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7.479102561175338</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-10.72743025739807</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.392468641111495</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20.74082669749973</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-9.193845915864234</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-25.3028752274633</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2.860042218801108</v>
+      </c>
+      <c r="H115" t="n">
+        <v>11.00959634998571</v>
+      </c>
+      <c r="I115" t="n">
+        <v>19.58347454220594</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-12.29549594452417</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4.966992232365217</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-4.653104567800534</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-1.059483543041357</v>
+      </c>
+      <c r="N115" t="n">
+        <v>26.44343347017035</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-15.02970328395153</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2.537396614945735</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4.676931717654332</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10.85786324939347</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9798315347089543</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.080505395041023</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-3.916485674217911</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.691269412451073</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-3.431922754974105</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6.215718898560509</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-3.69610336043634</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.771003939021865</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.2926281368497836</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.26050250772168</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.5139372358848624</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-17.73032468206882</v>
+      </c>
+      <c r="N116" t="n">
+        <v>12.61921500713992</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-9.05732300862619</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-6.537663386488198</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-5.956612940434921</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13.74438093170817</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-21.35674213978696</v>
+      </c>
+      <c r="C117" t="n">
+        <v>31.37748533659994</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10.56056809066052</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.232389141291597</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.5489400061628639</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.855540748576569</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5.211224283793383</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.45215585950057</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.556044660034485</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.8958068125524882</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-1.973384203073261</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-1.512732836535117</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-1.94908280352681</v>
+      </c>
+      <c r="O117" t="n">
+        <v>11.33770096867065</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5.935567222808618</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-29.4038863466428</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6.55900776529761</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.947361947187749</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.1870875644589742</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-3.885184530888858</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.24112719986013</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.475264621228579</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-7.728776678236091</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.070522871245351</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-9.71656734541286</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-13.79618164788931</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-6.267172245899651</v>
+      </c>
+      <c r="L118" t="n">
+        <v>8.623934723827588</v>
+      </c>
+      <c r="M118" t="n">
+        <v>9.531250453760867</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5.13085420097293</v>
+      </c>
+      <c r="O118" t="n">
+        <v>7.250957868479971</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5.161782871149584</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-6.414815952229523</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4.319225446739407</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.004095252276823</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.542913298135742</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.88913371474643</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.083038472010638</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.514482075415829</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10.70150238316428</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.2652125924906006</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-8.818746512277178</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-1.630669639437639</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-7.44902644806449</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-6.751782749743816</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-1.445186707155178</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-7.924199209999613</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-3.079615296390403</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-18.93614666953786</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.132937073729386</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.01205475362224237</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-8.170886310681906</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.59245668432405</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.375701376265583</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-16.07559864368974</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-7.627247785662142</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-7.691423497872982</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-9.399031011088647</v>
+      </c>
+      <c r="I120" t="n">
+        <v>8.294748419317484</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-1.938261387728035</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-2.645148413106107</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-20.03862364406753</v>
+      </c>
+      <c r="M120" t="n">
+        <v>6.354180302092264</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-12.39258394853472</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.5993263026632825</v>
+      </c>
+      <c r="P120" t="n">
+        <v>2.773769379581917</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>13.60658595838651</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-13.08820399119112</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-30.19512155820825</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.838495447536949</v>
+      </c>
+      <c r="D121" t="n">
+        <v>18.00511181510853</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.38946352939437</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.096594152746258</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4.916361856320473</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8.071225966373103</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-9.735461997044686</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4.763577693562192</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.054701591666269</v>
+      </c>
+      <c r="L121" t="n">
+        <v>10.6020990749888</v>
+      </c>
+      <c r="M121" t="n">
+        <v>27.59660038911078</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3.92415967178767</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-5.089636257074988</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-0.2557431219199444</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>-17.69075904889118</v>
+      </c>
+      <c r="R121" t="n">
         <v>1</v>
       </c>
     </row>
